--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shipra.COMPRO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F798D025-B724-4F78-A42F-9B08A5E843C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,51 +139,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -200,153 +160,64 @@
       <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,202 +536,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9831DC37-9DAE-4B98-977F-F5962D0F2D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B12:F12"/>
@@ -869,11 +747,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9255D-4718-4F01-8E17-53FF52BB4B4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,6 +194,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,21 +212,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,49 +537,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,148 +588,148 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A9255D-4718-4F01-8E17-53FF52BB4B4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A445950D-42BE-4255-AA0B-45F4CAACCA27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,26 +98,24 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -185,39 +183,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,186 +549,186 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
@@ -728,8 +736,8 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.4_Student_Q_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A445950D-42BE-4255-AA0B-45F4CAACCA27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CE94BD-3491-437C-AA3E-89856B18159E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,14 +92,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,8 +109,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,12 +133,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5F9BD5"/>
+        <fgColor rgb="FFFDC689"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDC689"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -147,21 +153,183 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -171,11 +339,26 @@
       <right style="thin">
         <color theme="4" tint="0.79998168889431442"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,49 +366,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,6 +445,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFE1A16C"/>
+      <color rgb="FFFDC689"/>
+      <color rgb="FFCAE8FF"/>
+      <color rgb="FFDFF7FD"/>
       <color rgb="FF5F9BD5"/>
     </mruColors>
   </colors>
@@ -546,16 +761,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
@@ -564,180 +779,181 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
